--- a/設計書/02_基本設計（外部設計）/項目定義一覧.xlsx
+++ b/設計書/02_基本設計（外部設計）/項目定義一覧.xlsx
@@ -21,10 +21,10 @@
   </definedNames>
   <calcPr calcId="145621"/>
   <customWorkbookViews>
+    <customWorkbookView name="FST.Noguchi - 個人用ビュー" guid="{5D7CE7C0-1A07-4E70-816B-B9F27EFCFB34}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1596" windowHeight="670" activeSheetId="1"/>
+    <customWorkbookView name="fst_oono - 個人用ビュー" guid="{5C90FFEC-6F86-4010-B93C-252309794A08}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1527" windowHeight="650" activeSheetId="2"/>
+    <customWorkbookView name="fst_nakagawa - 個人用ビュー" guid="{709F5761-167F-4C29-8B56-C1102579D2A5}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1596" windowHeight="709" activeSheetId="2"/>
     <customWorkbookView name="fst_yamashita - 個人用ビュー" guid="{342C0241-18BB-4D06-A724-8A5C681CA42A}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1596" windowHeight="634" activeSheetId="1"/>
-    <customWorkbookView name="fst_nakagawa - 個人用ビュー" guid="{709F5761-167F-4C29-8B56-C1102579D2A5}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1596" windowHeight="709" activeSheetId="2"/>
-    <customWorkbookView name="fst_oono - 個人用ビュー" guid="{5C90FFEC-6F86-4010-B93C-252309794A08}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1527" windowHeight="650" activeSheetId="2"/>
-    <customWorkbookView name="FST.Noguchi - 個人用ビュー" guid="{5D7CE7C0-1A07-4E70-816B-B9F27EFCFB34}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1596" windowHeight="670" activeSheetId="1"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -1168,7 +1168,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3"/>
+  <sheetPr codeName="Sheet3">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:G79"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
@@ -2217,53 +2219,51 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{342C0241-18BB-4D06-A724-8A5C681CA42A}" showAutoFilter="1">
-      <pane ySplit="2" topLeftCell="A249" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D274" sqref="D274"/>
+    <customSheetView guid="{5D7CE7C0-1A07-4E70-816B-B9F27EFCFB34}" showAutoFilter="1">
+      <pane ySplit="2" topLeftCell="A300" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D308" sqref="D308"/>
       <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
       <headerFooter alignWithMargins="0">
         <oddFooter>&amp;RAll Rights Reserved, Copyright　© パナソニックインフォメーションシステムズ株式会社 2012</oddFooter>
       </headerFooter>
-      <autoFilter ref="B1:H1"/>
+      <autoFilter ref="B1:G1"/>
+    </customSheetView>
+    <customSheetView guid="{5C90FFEC-6F86-4010-B93C-252309794A08}" showAutoFilter="1">
+      <pane ySplit="2" topLeftCell="A282" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H312" sqref="H312:I312"/>
+      <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+      <headerFooter alignWithMargins="0">
+        <oddFooter>&amp;RAll Rights Reserved, Copyright　© パナソニックインフォメーションシステムズ株式会社 2012</oddFooter>
+      </headerFooter>
+      <autoFilter ref="B1:G1"/>
     </customSheetView>
     <customSheetView guid="{709F5761-167F-4C29-8B56-C1102579D2A5}" showAutoFilter="1">
       <pane ySplit="2" topLeftCell="A264" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F269" sqref="F269"/>
       <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
       <headerFooter alignWithMargins="0">
         <oddFooter>&amp;RAll Rights Reserved, Copyright　© パナソニックインフォメーションシステムズ株式会社 2012</oddFooter>
       </headerFooter>
       <autoFilter ref="B1:H1"/>
     </customSheetView>
-    <customSheetView guid="{5C90FFEC-6F86-4010-B93C-252309794A08}" showAutoFilter="1">
-      <pane ySplit="2" topLeftCell="A282" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H312" sqref="H312:I312"/>
-      <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-      <headerFooter alignWithMargins="0">
-        <oddFooter>&amp;RAll Rights Reserved, Copyright　© パナソニックインフォメーションシステムズ株式会社 2012</oddFooter>
-      </headerFooter>
-      <autoFilter ref="B1:G1"/>
-    </customSheetView>
-    <customSheetView guid="{5D7CE7C0-1A07-4E70-816B-B9F27EFCFB34}" showAutoFilter="1">
-      <pane ySplit="2" topLeftCell="A300" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D308" sqref="D308"/>
+    <customSheetView guid="{342C0241-18BB-4D06-A724-8A5C681CA42A}" showAutoFilter="1">
+      <pane ySplit="2" topLeftCell="A249" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D274" sqref="D274"/>
       <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
       <headerFooter alignWithMargins="0">
         <oddFooter>&amp;RAll Rights Reserved, Copyright　© パナソニックインフォメーションシステムズ株式会社 2012</oddFooter>
       </headerFooter>
-      <autoFilter ref="B1:G1"/>
+      <autoFilter ref="B1:H1"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="2"/>
-  <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
-  <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;RAll Rights Reserved, Copyright　© パナソニックインフォメーションシステムズ株式会社 2012</oddFooter>
-  </headerFooter>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="81" fitToHeight="0" orientation="portrait" r:id="rId5"/>
+  <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId6"/>
   <tableParts count="1">
     <tablePart r:id="rId7"/>
